--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail1 Features.xlsx
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556990180017431</v>
+        <v>1.48023719293692</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.282294738759653</v>
@@ -942,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.550820668950118</v>
+        <v>1.472763133032028</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.666526172619105</v>
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.565966661403592</v>
+        <v>1.482356029142311</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.252685301341887</v>
@@ -1120,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564891627580944</v>
+        <v>1.487736140567662</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.188159856946116</v>
@@ -1209,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571672673212752</v>
+        <v>1.496333051617259</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.32017277479334</v>
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584727764710475</v>
+        <v>1.506927080440844</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.602525432920497</v>
@@ -1387,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593466009376908</v>
+        <v>1.516807441995051</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.856111133162918</v>
@@ -1476,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.585846626159312</v>
+        <v>1.509412471592775</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.363399983642294</v>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.572273584896887</v>
+        <v>1.492105623590622</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.018734006398926</v>
@@ -1654,7 +1654,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.57311076396104</v>
+        <v>1.489936089543009</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.281210741215467</v>
@@ -1743,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573588936601932</v>
+        <v>1.483595370153812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.743884678221925</v>
@@ -1832,7 +1832,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.570996412850753</v>
+        <v>1.485042761247109</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.821042381884749</v>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.589900170812504</v>
+        <v>1.49832191443725</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.788865001773286</v>
@@ -2010,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596026561796296</v>
+        <v>1.51736514683428</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.005765408888486</v>
@@ -2099,7 +2099,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.597031812809075</v>
+        <v>1.526372313072393</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.162491698742515</v>
@@ -2188,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586599772444485</v>
+        <v>1.521572269085333</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.95454715067899</v>
@@ -2277,7 +2277,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598182085870964</v>
+        <v>1.528307401020263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.983989359922473</v>
@@ -2366,7 +2366,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.590471421515823</v>
+        <v>1.528258399833091</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.96694964180309</v>
@@ -2455,7 +2455,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.581601190145327</v>
+        <v>1.514773814419598</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.746656879450421</v>
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.570514710936332</v>
+        <v>1.504324598990095</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.195183250450282</v>
@@ -2633,7 +2633,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.564256011478512</v>
+        <v>1.497046693414287</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.135648522227376</v>
@@ -2722,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561353690028787</v>
+        <v>1.497920590326515</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.129892579337492</v>
@@ -2811,7 +2811,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571699715167826</v>
+        <v>1.502937834751565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.627674868142572</v>
@@ -2900,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576126744842328</v>
+        <v>1.525012552001804</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.795476637278309</v>
@@ -2989,7 +2989,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577833163480097</v>
+        <v>1.526264302481681</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.091857110092524</v>
@@ -3078,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567742744467865</v>
+        <v>1.52280172900228</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.062552975069651</v>
@@ -3167,7 +3167,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575257286183016</v>
+        <v>1.531080223830013</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.029253220093185</v>
@@ -3256,7 +3256,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558876151294888</v>
+        <v>1.518351015978697</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.132109642476476</v>
@@ -3345,7 +3345,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556110513308439</v>
+        <v>1.513856898455615</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.966884841666461</v>
@@ -3434,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.562533384507065</v>
+        <v>1.514386742761005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.072580334309988</v>
@@ -3523,7 +3523,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.568765414609878</v>
+        <v>1.520517737963872</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.116072845565174</v>
@@ -3612,7 +3612,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.561882731998713</v>
+        <v>1.513601964140429</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.894893722888022</v>
@@ -3701,7 +3701,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.553190037841464</v>
+        <v>1.500738714637337</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.081653749475888</v>
@@ -3790,7 +3790,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560875670870254</v>
+        <v>1.516169897035759</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.026803415971658</v>
@@ -3879,7 +3879,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565868073071493</v>
+        <v>1.525387318342621</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.811558664949648</v>
@@ -3968,7 +3968,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569587217008507</v>
+        <v>1.529515246193193</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.9696211935009</v>
@@ -4057,7 +4057,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584737002224197</v>
+        <v>1.536950803461909</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.163803843486396</v>
@@ -4146,7 +4146,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574472321286477</v>
+        <v>1.526947779838181</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.18319892805787</v>
@@ -4235,7 +4235,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572906169112887</v>
+        <v>1.50975482466359</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.306651613743662</v>
@@ -4324,7 +4324,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578943072697614</v>
+        <v>1.516490771736843</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.322487532680101</v>
@@ -4413,7 +4413,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587003775840542</v>
+        <v>1.519268697512363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.080584598787835</v>
@@ -4502,7 +4502,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.578122899845871</v>
+        <v>1.513709457154503</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.078221383689399</v>
@@ -4788,7 +4788,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.573878383427893</v>
+        <v>1.488889901066182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.230003095388888</v>
@@ -4877,7 +4877,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.580455839816862</v>
+        <v>1.491162525078266</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.53481719006593</v>
@@ -4966,7 +4966,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600516365698095</v>
+        <v>1.509775981993248</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.853172746173406</v>
@@ -5055,7 +5055,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599782391363991</v>
+        <v>1.516026430400299</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.216269064018919</v>
@@ -5144,7 +5144,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613702708271816</v>
+        <v>1.529122800505375</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.132760032648956</v>
@@ -5233,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617323204515315</v>
+        <v>1.535694876625475</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.002165096628558</v>
@@ -5322,7 +5322,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.627493035654381</v>
+        <v>1.537058331313178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.827693273032102</v>
@@ -5411,7 +5411,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625640929896145</v>
+        <v>1.529932883664381</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.224550864026798</v>
@@ -5500,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61557466319589</v>
+        <v>1.517529085057285</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.156369104845457</v>
@@ -5589,7 +5589,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.619332770366933</v>
+        <v>1.52130837988976</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.412349072941432</v>
@@ -5678,7 +5678,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.620607952430409</v>
+        <v>1.521280785704796</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.971126268768381</v>
@@ -5767,7 +5767,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.603955988701474</v>
+        <v>1.511213950592126</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.176433773520912</v>
@@ -5856,7 +5856,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609310744404054</v>
+        <v>1.513910615296443</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.919962594147355</v>
@@ -5945,7 +5945,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607894819676929</v>
+        <v>1.525111091770574</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.995506988912173</v>
@@ -6034,7 +6034,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.59651568862131</v>
+        <v>1.521363132717573</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.138903543175906</v>
@@ -6123,7 +6123,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.599467922086198</v>
+        <v>1.533339485747314</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.070468859730251</v>
@@ -6212,7 +6212,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611832248889459</v>
+        <v>1.545049984263475</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.152303980982951</v>
@@ -6301,7 +6301,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604256323648174</v>
+        <v>1.533783963261417</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.13255130643322</v>
@@ -6390,7 +6390,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596094014715179</v>
+        <v>1.524144938190532</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.14748144344563</v>
@@ -6479,7 +6479,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573110105286951</v>
+        <v>1.49979118032351</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.968477369079</v>
@@ -6568,7 +6568,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565571731700035</v>
+        <v>1.492082004506673</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.045880852073446</v>
@@ -6657,7 +6657,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569212782223508</v>
+        <v>1.500667779832179</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.06070164492772</v>
@@ -6746,7 +6746,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584884300138772</v>
+        <v>1.510926730384586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.69850105307198</v>
@@ -6835,7 +6835,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.58670061164646</v>
+        <v>1.529920090826431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.653323922759589</v>
@@ -6924,7 +6924,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.597780453427332</v>
+        <v>1.540448299915551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.883882128218621</v>
@@ -7013,7 +7013,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598254247960036</v>
+        <v>1.541267095038296</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.880195122097561</v>
@@ -7102,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623312532681049</v>
+        <v>1.569428167596608</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.007934973875023</v>
@@ -7191,7 +7191,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616102216834197</v>
+        <v>1.562490186301668</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.439860683210562</v>
@@ -7280,7 +7280,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607502532465835</v>
+        <v>1.553271305093082</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.136031659902872</v>
@@ -7369,7 +7369,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.605264373747988</v>
+        <v>1.547699668992154</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.172613405840254</v>
@@ -7458,7 +7458,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.600315153800245</v>
+        <v>1.536906532301811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.21139564709593</v>
@@ -7547,7 +7547,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588066050029879</v>
+        <v>1.527107247746829</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.097881801165769</v>
@@ -7636,7 +7636,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.577363559310678</v>
+        <v>1.512904057306415</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.019607879008934</v>
@@ -7725,7 +7725,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.586447977812141</v>
+        <v>1.524082264427695</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.836956965265028</v>
@@ -7814,7 +7814,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592292763750824</v>
+        <v>1.536575583761616</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.80979864709394</v>
@@ -7903,7 +7903,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59537790437346</v>
+        <v>1.540093110252138</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.945907425687797</v>
@@ -7992,7 +7992,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595063707376225</v>
+        <v>1.54080602546133</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.930346286726764</v>
@@ -8081,7 +8081,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579221942246581</v>
+        <v>1.522412766994729</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.993870022510206</v>
@@ -8170,7 +8170,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575643639623054</v>
+        <v>1.50290533564115</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.037285284145301</v>
@@ -8259,7 +8259,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.57239558632537</v>
+        <v>1.505099652349817</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.173611160277066</v>
@@ -8348,7 +8348,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.571362627951621</v>
+        <v>1.50685002815226</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.095520414817004</v>
@@ -8437,7 +8437,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.571103116944998</v>
+        <v>1.501184746963316</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.905585254319505</v>
@@ -8723,7 +8723,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469902621838994</v>
+        <v>1.403988617961602</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.893999793722488</v>
@@ -8812,7 +8812,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472333132957056</v>
+        <v>1.399428934344978</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.874000184442535</v>
@@ -8901,7 +8901,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.488972744606088</v>
+        <v>1.415164928888746</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.596647120470944</v>
@@ -8990,7 +8990,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504000301431073</v>
+        <v>1.443076439994977</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.654998834614422</v>
@@ -9079,7 +9079,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505004730100328</v>
+        <v>1.440124622521481</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.972038141983672</v>
@@ -9168,7 +9168,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516566064456482</v>
+        <v>1.454924066597664</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.930400639213093</v>
@@ -9257,7 +9257,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.529683584856322</v>
+        <v>1.470968885022838</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.836528250234974</v>
@@ -9346,7 +9346,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.541330583199686</v>
+        <v>1.479525431780339</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.038814806936426</v>
@@ -9435,7 +9435,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547685179101778</v>
+        <v>1.478249353074917</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.004520178092879</v>
@@ -9524,7 +9524,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556797537243249</v>
+        <v>1.488548019911612</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.902364098844938</v>
@@ -9613,7 +9613,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563079877159151</v>
+        <v>1.494650558118099</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.91567595159183</v>
@@ -9702,7 +9702,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562157506024696</v>
+        <v>1.487751712525705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.877573036012013</v>
@@ -9791,7 +9791,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563659227499367</v>
+        <v>1.492133855967979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.967590171010518</v>
@@ -9880,7 +9880,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558594683530553</v>
+        <v>1.489007137070624</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.166556213555005</v>
@@ -9969,7 +9969,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565683648691403</v>
+        <v>1.491476635744063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.041416317595349</v>
@@ -10058,7 +10058,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58576644033896</v>
+        <v>1.509724118606445</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.212560651067176</v>
@@ -10147,7 +10147,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595740183948606</v>
+        <v>1.514647732564924</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.172598365712377</v>
@@ -10236,7 +10236,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58477591727641</v>
+        <v>1.499826179149788</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.886709268322817</v>
@@ -10325,7 +10325,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574210859714508</v>
+        <v>1.487017846306025</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.069436684167815</v>
@@ -10414,7 +10414,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568087577960836</v>
+        <v>1.478228955877636</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.963926115544822</v>
@@ -10503,7 +10503,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555558766417276</v>
+        <v>1.468325848119052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.99186427235116</v>
@@ -10592,7 +10592,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.551693301916645</v>
+        <v>1.464098036795825</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.252522047209395</v>
@@ -10681,7 +10681,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555185576870638</v>
+        <v>1.471032044833604</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.139550842122207</v>
@@ -10770,7 +10770,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543235230047339</v>
+        <v>1.46193095787685</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.98569647074355</v>
@@ -10859,7 +10859,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548909259870446</v>
+        <v>1.467924583573922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.774094528647764</v>
@@ -10948,7 +10948,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546741108413049</v>
+        <v>1.465453341917166</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.265654792010041</v>
@@ -11037,7 +11037,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.56939360890708</v>
+        <v>1.492066124752161</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.897367216246912</v>
@@ -11126,7 +11126,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.577278649226054</v>
+        <v>1.498551439806144</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.366874700324127</v>
@@ -11215,7 +11215,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577605366899965</v>
+        <v>1.497076983698923</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.116704834739689</v>
@@ -11304,7 +11304,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568610690519722</v>
+        <v>1.489929778298794</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.08839149075739</v>
@@ -11393,7 +11393,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551973736961337</v>
+        <v>1.471722243351556</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.407471056004616</v>
@@ -11482,7 +11482,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547253621686745</v>
+        <v>1.4715149394266</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.02036492562464</v>
@@ -11571,7 +11571,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526635808575603</v>
+        <v>1.460676617473475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.746850559046075</v>
@@ -11660,7 +11660,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522603975380515</v>
+        <v>1.461511253720415</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.934170703343301</v>
@@ -11749,7 +11749,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.527873610443212</v>
+        <v>1.473232561029266</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.727984012480619</v>
@@ -11838,7 +11838,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527860653742595</v>
+        <v>1.473858417804414</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.889157487597775</v>
@@ -11927,7 +11927,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531166934156412</v>
+        <v>1.473321173567198</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.010634641838554</v>
@@ -12016,7 +12016,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.526781121167666</v>
+        <v>1.465659231219227</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.961902423623398</v>
@@ -12105,7 +12105,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5297912078291</v>
+        <v>1.466454575764619</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.967465566515727</v>
@@ -12194,7 +12194,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516982108440363</v>
+        <v>1.454079122880052</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.857053133974247</v>
@@ -12283,7 +12283,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.524905682638733</v>
+        <v>1.461254306907341</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.016316029615611</v>
@@ -12372,7 +12372,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519974998711547</v>
+        <v>1.455786981610305</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.048609264185642</v>
@@ -12658,7 +12658,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613465639217859</v>
+        <v>1.525278696789058</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.451931902812705</v>
@@ -12747,7 +12747,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.621763508116074</v>
+        <v>1.531661889627101</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.042436901849402</v>
@@ -12836,7 +12836,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.634751684021414</v>
+        <v>1.543006752110035</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.563928996928875</v>
@@ -12925,7 +12925,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636850527839304</v>
+        <v>1.547855720416106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.613432960396276</v>
@@ -13014,7 +13014,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645244458017865</v>
+        <v>1.557036745556163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.693714893347359</v>
@@ -13103,7 +13103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648818840755887</v>
+        <v>1.570319419394224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.430479624949082</v>
@@ -13192,7 +13192,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663229032645238</v>
+        <v>1.586231279082966</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.387405919119214</v>
@@ -13281,7 +13281,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654256881201459</v>
+        <v>1.579924995757566</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.749789162018404</v>
@@ -13370,7 +13370,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.666358023801115</v>
+        <v>1.587100731687785</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.601609995533793</v>
@@ -13459,7 +13459,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.647642539029837</v>
+        <v>1.572713833029283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.291434601966382</v>
@@ -13548,7 +13548,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.65990109133832</v>
+        <v>1.589639335479008</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.652375719059679</v>
@@ -13637,7 +13637,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668252777534746</v>
+        <v>1.598859069676709</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.726535481259869</v>
@@ -13726,7 +13726,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.678031429471931</v>
+        <v>1.60509134662422</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.67837062782074</v>
@@ -13815,7 +13815,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.683350830898649</v>
+        <v>1.614388841617766</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.622905199268539</v>
@@ -13904,7 +13904,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.689572077146424</v>
+        <v>1.620792917746131</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.580212281468945</v>
@@ -13993,7 +13993,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674539752528567</v>
+        <v>1.60764928322679</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.638246418406214</v>
@@ -14082,7 +14082,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678927358265659</v>
+        <v>1.611896436937024</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.620390854487064</v>
@@ -14171,7 +14171,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673065099661605</v>
+        <v>1.605739310539133</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.306941204148945</v>
@@ -14260,7 +14260,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.669415661656411</v>
+        <v>1.597849156545074</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.462269093955545</v>
@@ -14349,7 +14349,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.66276743203783</v>
+        <v>1.590971738144513</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.674584606183515</v>
@@ -14438,7 +14438,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.650920466665176</v>
+        <v>1.585695279910428</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.291873249133952</v>
@@ -14527,7 +14527,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655279247446837</v>
+        <v>1.590757082553958</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.637547142042494</v>
@@ -14616,7 +14616,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.657968709809879</v>
+        <v>1.592458476557094</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.154358638754765</v>
@@ -14705,7 +14705,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652495430272887</v>
+        <v>1.593745053369924</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.871876401111104</v>
@@ -14794,7 +14794,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665483039004081</v>
+        <v>1.603653774004209</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.309735178422041</v>
@@ -14883,7 +14883,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657318076115468</v>
+        <v>1.593931680374837</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.179047043703842</v>
@@ -14972,7 +14972,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.651627201310838</v>
+        <v>1.584821530356411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.826831833125622</v>
@@ -15061,7 +15061,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643152354321974</v>
+        <v>1.574853096700314</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.244343553298047</v>
@@ -15150,7 +15150,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63871852378266</v>
+        <v>1.567143445533496</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.618308745676675</v>
@@ -15239,7 +15239,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.637670598626295</v>
+        <v>1.572120055432895</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.772669136854001</v>
@@ -15328,7 +15328,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.642316626281351</v>
+        <v>1.566430314991057</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.03460459114797</v>
@@ -15417,7 +15417,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643330227241165</v>
+        <v>1.562565956391709</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.205696011654808</v>
@@ -15506,7 +15506,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645519987726045</v>
+        <v>1.560998334824891</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.034310708099843</v>
@@ -15595,7 +15595,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644792416025365</v>
+        <v>1.562300872338175</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.855021780735152</v>
@@ -15684,7 +15684,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.652912362790519</v>
+        <v>1.568174266106068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.678425975424499</v>
@@ -15773,7 +15773,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660272689428018</v>
+        <v>1.569635727981797</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.906903605970873</v>
@@ -15862,7 +15862,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.655860416741585</v>
+        <v>1.56460457611658</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.383011224284483</v>
@@ -15951,7 +15951,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655110753481333</v>
+        <v>1.56412964235004</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.668311016496456</v>
@@ -16040,7 +16040,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.6553188099224</v>
+        <v>1.560928714495399</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.330578270026332</v>
@@ -16129,7 +16129,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646589823935533</v>
+        <v>1.553820177986201</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.476182907880097</v>
@@ -16218,7 +16218,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65658984020703</v>
+        <v>1.560124998011265</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.59211214910758</v>
@@ -16307,7 +16307,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656047896388439</v>
+        <v>1.564464752444045</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.389364859834406</v>
@@ -16593,7 +16593,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.545665878248296</v>
+        <v>1.482907517956491</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.695990831956613</v>
@@ -16682,7 +16682,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542706848675476</v>
+        <v>1.483306502919809</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.513745494753966</v>
@@ -16771,7 +16771,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577017339627054</v>
+        <v>1.515749562188912</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.85631991510278</v>
@@ -16860,7 +16860,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.580886560517808</v>
+        <v>1.514619854059168</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.633940760429026</v>
@@ -16949,7 +16949,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58790852323956</v>
+        <v>1.520542640193192</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.596731052027744</v>
@@ -17038,7 +17038,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.592990537436217</v>
+        <v>1.524809141536968</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.659715160814039</v>
@@ -17127,7 +17127,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60177904205638</v>
+        <v>1.538132020593118</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517255449547661</v>
@@ -17216,7 +17216,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576037907237134</v>
+        <v>1.519067468195253</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.010347715054678</v>
@@ -17305,7 +17305,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502272040621158</v>
+        <v>1.456675002363644</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.048145682678909</v>
@@ -17394,7 +17394,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.50015703361274</v>
+        <v>1.451399993948462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.027033189655818</v>
@@ -17483,7 +17483,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.498666995671004</v>
+        <v>1.453890558484954</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.039964540726427</v>
@@ -17572,7 +17572,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.495164749336452</v>
+        <v>1.450484119173055</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.023096967674465</v>
@@ -17661,7 +17661,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497133679559423</v>
+        <v>1.450534190769534</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.038457952328008</v>
@@ -17750,7 +17750,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.500783524462619</v>
+        <v>1.457159890793729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.022964444356034</v>
@@ -17839,7 +17839,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.50598749496341</v>
+        <v>1.467089656623834</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.023978657153577</v>
@@ -17928,7 +17928,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.511416173072967</v>
+        <v>1.475810253752339</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.037657962224178</v>
@@ -18017,7 +18017,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520278071257535</v>
+        <v>1.475679773073427</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.051408955516375</v>
@@ -18106,7 +18106,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516240296975873</v>
+        <v>1.473955805155351</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.023379345543533</v>
@@ -18195,7 +18195,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531078049561425</v>
+        <v>1.489641017801317</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.038982751364673</v>
@@ -18284,7 +18284,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533199100481617</v>
+        <v>1.487748274123053</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.025420638091525</v>
@@ -18373,7 +18373,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535034718692509</v>
+        <v>1.491432722046519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.051506444329862</v>
@@ -18462,7 +18462,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.536650475904237</v>
+        <v>1.494085392155273</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.040622679714621</v>
@@ -18551,7 +18551,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603942885521233</v>
+        <v>1.538869566672036</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.727787656695472</v>
@@ -18640,7 +18640,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.6336899879364</v>
+        <v>1.579854748953874</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.92291486794907</v>
@@ -18729,7 +18729,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.646740150832438</v>
+        <v>1.594922761237918</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.174121282773676</v>
@@ -18818,7 +18818,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.644461388183777</v>
+        <v>1.590975780104149</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.966394119148256</v>
@@ -18907,7 +18907,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663337253424398</v>
+        <v>1.607820698563859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.805288011834187</v>
@@ -18996,7 +18996,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.659437573605128</v>
+        <v>1.60505204425141</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.865335459866022</v>
@@ -19085,7 +19085,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.657608449366957</v>
+        <v>1.602400743116277</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.158899777255572</v>
@@ -19174,7 +19174,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.659278983167367</v>
+        <v>1.595297311992915</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.223471059470171</v>
@@ -19263,7 +19263,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.650244488795545</v>
+        <v>1.583910891509113</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.059557128793033</v>
@@ -19352,7 +19352,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641283333509196</v>
+        <v>1.586781860381514</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.28573359391405</v>
@@ -19441,7 +19441,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.636771036210772</v>
+        <v>1.57732751688913</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.05295564467598</v>
@@ -19530,7 +19530,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631060574976588</v>
+        <v>1.57306953788867</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.621910954069234</v>
@@ -19619,7 +19619,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.624482215400536</v>
+        <v>1.573544013303798</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.109643988960471</v>
@@ -19708,7 +19708,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626973634468318</v>
+        <v>1.574010039391874</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.729584906545274</v>
@@ -19797,7 +19797,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629653120746092</v>
+        <v>1.573285933277298</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.482611312290539</v>
@@ -19886,7 +19886,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623605995186295</v>
+        <v>1.566150676814055</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.334218408631513</v>
@@ -19975,7 +19975,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.636168993529125</v>
+        <v>1.569318709718866</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.573561562429237</v>
@@ -20064,7 +20064,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638930964832409</v>
+        <v>1.570805153597677</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.89404995078496</v>
@@ -20153,7 +20153,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637445486042809</v>
+        <v>1.573177416556756</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.768511524569069</v>
@@ -20242,7 +20242,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627738706015077</v>
+        <v>1.567289883378491</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.735461321434279</v>
@@ -20528,7 +20528,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469003268467583</v>
+        <v>1.436294631900655</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.497333642517313</v>
@@ -20617,7 +20617,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.477877425551335</v>
+        <v>1.443826132701651</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.514106105049159</v>
@@ -20706,7 +20706,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.497907126711814</v>
+        <v>1.457000507611873</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.330392802428135</v>
@@ -20795,7 +20795,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515506332831943</v>
+        <v>1.475409899251097</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.776808083163292</v>
@@ -20884,7 +20884,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520548606892473</v>
+        <v>1.480513796473373</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.73376998820548</v>
@@ -20973,7 +20973,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540573776736191</v>
+        <v>1.504274653095271</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.709730317501685</v>
@@ -21062,7 +21062,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564339760452828</v>
+        <v>1.524874999338981</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.652979536912309</v>
@@ -21151,7 +21151,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.574292051410555</v>
+        <v>1.525046472335707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.809327471353287</v>
@@ -21240,7 +21240,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.572640138774211</v>
+        <v>1.511265127906304</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.698375211500813</v>
@@ -21329,7 +21329,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56759624612985</v>
+        <v>1.516136890441119</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.520440916081092</v>
@@ -21418,7 +21418,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.561551603554509</v>
+        <v>1.514800535512032</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.706797271110198</v>
@@ -21507,7 +21507,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571705025396491</v>
+        <v>1.518473245506519</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.660279694113185</v>
@@ -21596,7 +21596,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.567408458899595</v>
+        <v>1.51937037763187</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.801148154690963</v>
@@ -21685,7 +21685,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568119270092001</v>
+        <v>1.519537721424453</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.718489521103176</v>
@@ -21774,7 +21774,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569340774404084</v>
+        <v>1.523485891161689</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.595642232821238</v>
@@ -21863,7 +21863,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576595367175799</v>
+        <v>1.52992460626478</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.833911350453335</v>
@@ -21952,7 +21952,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581705180379016</v>
+        <v>1.531353843872718</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.915881759419569</v>
@@ -22041,7 +22041,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.563887609932059</v>
+        <v>1.519488280018691</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.881725897084824</v>
@@ -22130,7 +22130,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568631875276405</v>
+        <v>1.517128976825948</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.756590338993921</v>
@@ -22219,7 +22219,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.563261640330364</v>
+        <v>1.510890202773978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.875309710106306</v>
@@ -22308,7 +22308,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56033613344741</v>
+        <v>1.510416211950522</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.853268964469672</v>
@@ -22397,7 +22397,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560063657900434</v>
+        <v>1.513991832821871</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.781758053860305</v>
@@ -22486,7 +22486,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56181377494524</v>
+        <v>1.518114666045667</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.765665569210399</v>
@@ -22575,7 +22575,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.568314772284605</v>
+        <v>1.535559597526079</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.974930607609948</v>
@@ -22664,7 +22664,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594290043343746</v>
+        <v>1.556215855677909</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.889448060782623</v>
@@ -22753,7 +22753,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.596716439905391</v>
+        <v>1.557048395246751</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.821341946446642</v>
@@ -22842,7 +22842,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61276844300906</v>
+        <v>1.572527152697045</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.407939856100752</v>
@@ -22931,7 +22931,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61776862537569</v>
+        <v>1.567320916156616</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.975413710246517</v>
@@ -23020,7 +23020,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612453263071285</v>
+        <v>1.561840974649266</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.050747281655792</v>
@@ -23109,7 +23109,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.605916626028056</v>
+        <v>1.557269284981057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.993163331373774</v>
@@ -23198,7 +23198,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602987799114022</v>
+        <v>1.551038519008552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.712738341138382</v>
@@ -23287,7 +23287,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597607851771009</v>
+        <v>1.549288380718765</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.687385503522653</v>
@@ -23376,7 +23376,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594059414673776</v>
+        <v>1.542360245101655</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.865381694529868</v>
@@ -23465,7 +23465,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589523886129813</v>
+        <v>1.541804133722253</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.944245035249515</v>
@@ -23554,7 +23554,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605966475890259</v>
+        <v>1.557308281108885</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.595554956087736</v>
@@ -23643,7 +23643,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600213269309541</v>
+        <v>1.552838930326192</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.258855578474142</v>
@@ -23732,7 +23732,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587352359148387</v>
+        <v>1.541106798789591</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.294550364132645</v>
@@ -23821,7 +23821,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.584935492747146</v>
+        <v>1.541149336484405</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.113192040758631</v>
@@ -23910,7 +23910,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.583907551874639</v>
+        <v>1.534829282454253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.834808605485231</v>
@@ -23999,7 +23999,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.555464265816093</v>
+        <v>1.507657075218657</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.949595368491633</v>
@@ -24088,7 +24088,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554221091486417</v>
+        <v>1.506812838750689</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.901734713486772</v>
@@ -24177,7 +24177,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550250021446862</v>
+        <v>1.504274977757406</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.61696785863469</v>
